--- a/2013_coleta_tipos_residuos.xlsx
+++ b/2013_coleta_tipos_residuos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F4B795-2B8D-4335-8272-96FB8D199E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F74E50-1EE7-4EC9-A46F-1C986C3FE0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B21" sqref="B21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,56 +1393,56 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <f>SUM(B2:B2)</f>
-        <v>329811.17</v>
+        <f>SUM(B2:B20)</f>
+        <v>527044.3600000001</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:N21" si="0">SUM(C2:C2)</f>
-        <v>306900.44</v>
+        <f t="shared" ref="C21:N21" si="0">SUM(C2:C20)</f>
+        <v>486900.51000000013</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>319322.64</v>
+        <v>510833.56999999995</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>323370.88</v>
+        <v>521353.3</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>311543.84000000003</v>
+        <v>523811.98000000016</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>297548.84999999998</v>
+        <v>496693.77999999997</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>317327.32</v>
+        <v>528751.06999999995</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>315676.64</v>
+        <v>529504.9700000002</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>305483.65000000002</v>
+        <v>502552.81000000006</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>331783.32</v>
+        <v>546822.72999999986</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>322859.19</v>
+        <v>511474</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>349827.25</v>
+        <v>533296.38</v>
       </c>
       <c r="N21">
-        <f>SUM(N2:N2)</f>
-        <v>3831455.189999999</v>
+        <f t="shared" si="0"/>
+        <v>6219039.4600000009</v>
       </c>
     </row>
   </sheetData>
